--- a/Assets/Resources/Data/Equip/Wing/Excel/WingEquipData.xlsx
+++ b/Assets/Resources/Data/Equip/Wing/Excel/WingEquipData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\knemo\Desktop\GitHub\HeadingWithWings\Assets\Resources\Data\Equip\Wing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{905E795A-BDD4-4A7B-90A9-19E049C0C05A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFAF5751-1F52-410C-B98F-80A91F3E0A03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30375" yWindow="4275" windowWidth="25155" windowHeight="17085" xr2:uid="{546F78BC-0268-4F54-951B-31A30E4FBFFB}"/>
+    <workbookView xWindow="28560" yWindow="-4485" windowWidth="25155" windowHeight="11385" xr2:uid="{546F78BC-0268-4F54-951B-31A30E4FBFFB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -496,7 +496,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5933A073-06A7-41B4-8C36-23A86890EBA2}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -547,7 +549,7 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -573,7 +575,7 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="E3">
         <v>0.9</v>
@@ -599,7 +601,7 @@
         <v>3</v>
       </c>
       <c r="D4">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="E4">
         <v>0.8</v>
@@ -625,7 +627,7 @@
         <v>4</v>
       </c>
       <c r="D5">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="E5">
         <v>0.7</v>
@@ -807,7 +809,7 @@
         <v>1</v>
       </c>
       <c r="D12">
-        <v>-1</v>
+        <v>0.1</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -833,7 +835,7 @@
         <v>2</v>
       </c>
       <c r="D13">
-        <v>-1</v>
+        <v>0.15</v>
       </c>
       <c r="E13">
         <v>1.8</v>
@@ -859,7 +861,7 @@
         <v>3</v>
       </c>
       <c r="D14">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="E14">
         <v>1.6</v>
@@ -885,7 +887,7 @@
         <v>4</v>
       </c>
       <c r="D15">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="E15">
         <v>1.4</v>
@@ -911,7 +913,7 @@
         <v>5</v>
       </c>
       <c r="D16">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="E16">
         <v>1</v>

--- a/Assets/Resources/Data/Equip/Wing/Excel/WingEquipData.xlsx
+++ b/Assets/Resources/Data/Equip/Wing/Excel/WingEquipData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\knemo\Desktop\GitHub\HeadingWithWings\Assets\Resources\Data\Equip\Wing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFAF5751-1F52-410C-B98F-80A91F3E0A03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{613E8456-D3C9-4EF6-91F4-6558C4C4041B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28560" yWindow="-4485" windowWidth="25155" windowHeight="11385" xr2:uid="{546F78BC-0268-4F54-951B-31A30E4FBFFB}"/>
+    <workbookView xWindow="2970" yWindow="3105" windowWidth="25155" windowHeight="11385" xr2:uid="{546F78BC-0268-4F54-951B-31A30E4FBFFB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -497,7 +497,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -679,7 +679,7 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -705,7 +705,7 @@
         <v>2</v>
       </c>
       <c r="D8">
-        <v>5.5</v>
+        <v>3.3</v>
       </c>
       <c r="E8">
         <v>1.8</v>
@@ -731,7 +731,7 @@
         <v>3</v>
       </c>
       <c r="D9">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="E9">
         <v>1.6</v>
@@ -757,7 +757,7 @@
         <v>4</v>
       </c>
       <c r="D10">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E10">
         <v>1.4</v>
@@ -783,7 +783,7 @@
         <v>5</v>
       </c>
       <c r="D11">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -809,7 +809,7 @@
         <v>1</v>
       </c>
       <c r="D12">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -835,7 +835,7 @@
         <v>2</v>
       </c>
       <c r="D13">
-        <v>0.15</v>
+        <v>0.6</v>
       </c>
       <c r="E13">
         <v>1.8</v>
@@ -861,7 +861,7 @@
         <v>3</v>
       </c>
       <c r="D14">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="E14">
         <v>1.6</v>
@@ -887,7 +887,7 @@
         <v>4</v>
       </c>
       <c r="D15">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="E15">
         <v>1.4</v>
@@ -913,7 +913,7 @@
         <v>5</v>
       </c>
       <c r="D16">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="E16">
         <v>1</v>
